--- a/research_filter/corono_discharge_updated_20241130_231804_X.xlsx
+++ b/research_filter/corono_discharge_updated_20241130_231804_X.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balan\IdeaProjects\crewai-flows-crash-course\research_filter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balan\IdeaProjects\academic_paper_maker\research_filter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA61B736-A3BA-46E6-902A-AFBAA85A47AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725760FC-FA59-40B5-B393-4ED26FBECC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="2759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="2774">
   <si>
     <t>author</t>
   </si>
@@ -8310,6 +8310,51 @@
   </si>
   <si>
     <t xml:space="preserve">Ensuring the fire safety of high voltage (HV) outdoor insulators is key to maintain the reliable operation of the electrical grid. This requires the careful selection of suitable polymeric composite materials with excellent electrical tracking, erosion, and fire resistance characteristics. To improve their performance against electrical tracking and potential combustion issues, inorganic additives are commonly integrated into these materials. The focus of this review article is on describing the progress and innovations in enhancing the electrical tracking, erosion, and fire performance of polymeric materials by incorporating inorganic additives. The main objective is to explore the development of these materials and showcase their evaluation through laboratory testing. This study highlights significant state-of-the-art advancements in the field, providing valuable insights into its current progress. Additionally, the research outlines prospects, offering a peek at how upcoming studies are expected to further advance the scientific knowledge in the field. By disseminating critical information about the development, testing, and future potential of polymeric materials containing inorganic additives, this work is expected to facilitate researchers in advancing their work in HV outdoor insulation, leading to more efficient electrical insulation solutions for safer and reliable electrical grids.       </t>
+  </si>
+  <si>
+    <t>M. S. Hapeez, et al.</t>
+  </si>
+  <si>
+    <t>An algorithm for identification of different types of partial discharge using harmonic orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study was conducted in order to classify and then to identify the different types of PD based on the characteristic of the harmonic orders. The data from the experimental work has been validated before the harmonic analysis can be commenced. Once the validation stage has been completed, the obtained data is then analysed in terms of its fundamental power frequency and the characteristic associated. The outcome of the analysis shows that each different type of PD produced a distinctive Total Harmonic Distortion (THD) level and distinguishable harmonics order. Based on the findings, a classification has been profiled and a conditional method system is proposed to be used to identify the PD types based on the harmonics order. The outcome of this study shows an accuracy of 98. 33% of PD types can be identified from various types of data which have been tested based on the proposed condition.       </t>
+  </si>
+  <si>
+    <t>PNN and its adaptive version - An ingenious approach to PD pattern classification compared with BPA network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The reliability of insulation systems is a major requirement of any power apparatus. The incidence of minor flaws and irregularities such as voids, surface imperfections etc, in insulation systems is however inevitable and leads to partial discharges (PD). Classification of PD patterns plays an important role during manufacturing and on-site assessment of power apparatus. The innovative trend of using artificial neural network towards classification of PD patterns is perceptible. A novel method for the classification of PD patterns using the original probabilistic neural network (PNN) and its variation has been proposed and implemented in this work. The classification of single-type insulation defects such as voids, surface discharges and corona has been considered primarily. The efficacy and merits of PNN and its adaptive version over that of the back propagation algorithm based feed forward neural network has been established through exhaustive comparisons on the performance of the neural networks in PD pattern classification task. © 2006 FEI STU.       </t>
+  </si>
+  <si>
+    <t>S. W. Kim, et al.</t>
+  </si>
+  <si>
+    <t>Classification of PD defects in gas insulated switchgears under HVDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the high voltage direct current (HVDC) technology is achieving rapid development, it is essential to diagnose the condition of related power apparatus to ensure their reliable operation. However, the partial discharge (PD), which is regarded as a useful implement for condition monitoring, has not been studied in detail under HVDC. In this paper, a real-time system was proposed for PD classification in gas insulated switchgears (GIS) under HVDC. Four types of electrode systems were fabricated to simulate typical insulation defects in GIS. PD signals were measured by a data acquisition unit and the discharge distribution and density function were established based on discharge magnitude and time interval between PD pulses. Statistical characteristics such as skewness, kurtosis, and peak value extracted from the discharge distribution and density function were adopted as identification parameters. An artificial neural network (ANN) was designed for defect classification. The proposed system could classify defect type with an average accuracy of 92.9%, which can be applied for condition monitoring of GIS. © Research India Publications.       </t>
+  </si>
+  <si>
+    <t>R. Liao, et al.</t>
+  </si>
+  <si>
+    <t>A new hybrid feature extraction method for partial discharge signals classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, a new hybrid feature extraction method combining adaptive optimal radially Gaussian kernel (AORGK) time-frequency representation with two dimensional nonnegative matrix factorization (2DNMF) is proposed for partial discharge (PD) classification. Firstly, AORGK is applied to obtain the time-frequency matrices of PD ultra-high-frequency (UHF) signals. Then 2DNMF is employed to compress the AORGK amplitude (AORGKA) matrices to extract various feature vectors with different (d1, d2) combinations, i.e. (5, 5), (5, 10), (10, 5) and (10, 10). Finally, the extracted features are classified by fuzzy k nearest neighbor (FkNN) classifier and back propagation neural network (BPNN). 600 samples sampled from four typical artificial defect models in Laboratory are adopting for testing of the proposed feature extraction algorithm. It is shown that the successful rate by FkNN and BPNN are all higher than 80%, and FkNN has superior classification accuracies than BPNN under four circumstances of (d1, d2) combinations. In addition, FkNN achieves the highest classification accuracy 93.73% with (10, 5) combination. The results demonstrate that it is feasible to apply the proposed algorithm to PD signal classification.       </t>
+  </si>
+  <si>
+    <t>Binary particle swarm optimization selected time-frequency features for partial discharge signal classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this study, the development of binary particle swarm optimization (BPSO) feature selection algorithm is proposed for partial discharge (PD) signal classification based on quantified time-frequency features. Firstly, adaptive optimal kernel (AOK) time-frequency representation technique is employed to obtain a high quality of time-frequency distribution of partial discharge ultra-high-frequency (UHF) signals with reasonable resolutions in both time and frequency domains. Then, a non-negative matrix factorization (NMF)-based matrix decomposition (MD) method is applied to obtain a series of base vectors in frequency domain and location vectors in time domain which are further used to extract statistical features to construct an adequate feature space representing the time-frequency information. Finally, the developed BPSO feature selection algorithm is adopted to improve PD classification performance. A fuzzy k-nearest neighbor (FkNN) classifier is responsible for the classification task and used as the fitness evaluator of BPSO. Using a UHF detector, 600 PD signals sampled from four categories of artificial defect models in the laboratory are adopted for testing. Performances of various feature sets, including all the statistical features, artificially combined features with different dimensions and BPSO selected features, are compared. Results demonstrate that the proposed feature extraction and selection algorithm can provide an effective tool for partial discharge signal classification, and it is easy to extend to other image or matrix applications. © 2012 Praise Worthy Prize S.r.l. - All rights reserved.       </t>
+  </si>
+  <si>
+    <t>Partial discharge signal classification utilizing time-frequency representation and two directional 2DPCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, a new feature extraction algorithm is presented, based on a time-frequency representation technique S transform (ST) and two-directional two-dimensional principal component analysis ((2D)2PCA), which enables the classification of partial discharge (PD) UHF signals generated by different artificial defects utilizing a support vector machine (SVM) classifier. S transform (ST) is firstly employed to obtain a time-frequency representation of the recorded UHF signals. Then, (2D) 2PCA is applied to compress the ST amplitude(STA) matrices to extract various feature vectors with different (d1, d2) combinations, i.e. (5, 5), (5, 10), (10, 5) and (10, 10). In the training phase, LIBSVM toolbox is used to construct the SVM classifier, and the two parameters of SVM are selected by particle swarm optimization (PSO) algorithm. After that the PSO-SVM classifier is trained using the selected parameters. During testing, the PD classes are recognized by means of the trained PSO-SVM. Besides, a comparison with the traditional three-layer back propagation neural network (BPNN) is given in this study. Experimental results show that the classification accuracies by PSO-SVM are all higher than that by BPNN under four circumstances of (d1, d2) combinations. The success rates of the PSO-SVM with the four feature vectors are above 94% in all cases, and the highest classification accuracy 97.67% is obtained with the (10, 5) combination. Furthermore, by applying (2D) 2PCA, the feature dimension can be dramatically decreased compared with that of the obtained STA matrices, and the most important information of original data is also preserved. It can be found that the proposed feature extraction and classification algorithm can be effectively applied to PD pattern recognition. © 2012 Praise Worthy Prize S.r.l. - All rights reserved.       </t>
   </si>
 </sst>
 </file>
@@ -8737,10 +8782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F719"/>
+  <dimension ref="A1:F725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P730" sqref="P730"/>
+      <selection activeCell="A717" sqref="A717:F725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23018,18 +23063,120 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B719">
+        <v>2013</v>
+      </c>
+      <c r="C719" t="s">
+        <v>2760</v>
+      </c>
+      <c r="E719" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F719" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
         <v>53</v>
       </c>
-      <c r="B719">
+      <c r="B720">
         <v>2005</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C720" t="s">
         <v>54</v>
       </c>
-      <c r="E719" t="s">
+      <c r="E720" t="s">
         <v>55</v>
       </c>
-      <c r="F719" t="s">
+      <c r="F720" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>53</v>
+      </c>
+      <c r="B721">
+        <v>2006</v>
+      </c>
+      <c r="C721" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E721" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F721" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B722">
+        <v>2016</v>
+      </c>
+      <c r="C722" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E722" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F722" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B723">
+        <v>2012</v>
+      </c>
+      <c r="C723" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E723" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F723" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B724">
+        <v>2012</v>
+      </c>
+      <c r="C724" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E724" t="s">
+        <v>2771</v>
+      </c>
+      <c r="F724" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B725">
+        <v>2012</v>
+      </c>
+      <c r="C725" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E725" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F725" t="s">
         <v>16</v>
       </c>
     </row>
